--- a/irecodes-master/leak_demand_t12.xlsx
+++ b/irecodes-master/leak_demand_t12.xlsx
@@ -771,85 +771,85 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003660092849440255</v>
+        <v>0.001535904324987621</v>
       </c>
       <c r="Z2">
-        <v>0.00366009279845033</v>
+        <v>0.001535904324806639</v>
       </c>
       <c r="AA2">
-        <v>0.003660092907956962</v>
+        <v>0.001535904325143706</v>
       </c>
       <c r="AB2">
-        <v>0.003660093099806927</v>
+        <v>0.001535904325759901</v>
       </c>
       <c r="AC2">
-        <v>0.003660093238702061</v>
+        <v>0.001535904326096957</v>
       </c>
       <c r="AD2">
-        <v>0.003660093237851955</v>
+        <v>0.001535904326051468</v>
       </c>
       <c r="AE2">
-        <v>0.003660093065310028</v>
+        <v>0.001535904325405631</v>
       </c>
       <c r="AF2">
-        <v>0.003660092509034045</v>
+        <v>0.001535904323895955</v>
       </c>
       <c r="AG2">
-        <v>0.003660092437653935</v>
+        <v>0.00153590432368744</v>
       </c>
       <c r="AH2">
-        <v>0.003660091964706499</v>
+        <v>0.001535904322287272</v>
       </c>
       <c r="AI2">
-        <v>0.003660092004138586</v>
+        <v>0.0015359043223993</v>
       </c>
       <c r="AJ2">
-        <v>0.003660091864655737</v>
+        <v>0.001535904321920089</v>
       </c>
       <c r="AK2">
-        <v>0.003660092830950499</v>
+        <v>0.001535904324904963</v>
       </c>
       <c r="AL2">
-        <v>0.003660092805528209</v>
+        <v>0.00153590432481441</v>
       </c>
       <c r="AM2">
-        <v>0.003660092971602254</v>
+        <v>0.001535904325332403</v>
       </c>
       <c r="AN2">
-        <v>0.003660093195987092</v>
+        <v>0.001535904325916659</v>
       </c>
       <c r="AO2">
-        <v>0.003660092193318926</v>
+        <v>0.001535904322964417</v>
       </c>
       <c r="AP2">
-        <v>0.003660092039579389</v>
+        <v>0.001535904322525606</v>
       </c>
       <c r="AQ2">
-        <v>0.003660091880556948</v>
+        <v>0.001535904321974416</v>
       </c>
       <c r="AR2">
-        <v>0.003660091943569958</v>
+        <v>0.001535904322173871</v>
       </c>
       <c r="AS2">
-        <v>0.003660091790004582</v>
+        <v>0.001535904321536993</v>
       </c>
       <c r="AT2">
-        <v>0.003660092870020509</v>
+        <v>0.001535904325011046</v>
       </c>
       <c r="AU2">
-        <v>0.003660093071823877</v>
+        <v>0.001535904325577314</v>
       </c>
       <c r="AV2">
-        <v>0.003660092842244271</v>
+        <v>0.001535904324922021</v>
       </c>
       <c r="AW2">
-        <v>0.003660092311360477</v>
+        <v>0.001535904323367009</v>
       </c>
       <c r="AX2">
-        <v>0.003660092008483885</v>
+        <v>0.001535904322408133</v>
       </c>
       <c r="AY2">
-        <v>0.003660091814125287</v>
+        <v>0.001535904321644489</v>
       </c>
       <c r="AZ2">
         <v>0</v>
